--- a/data/converted_variable.xlsx
+++ b/data/converted_variable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="542">
   <si>
     <t>변수명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,11 +624,6 @@
     <t>[B_Q1_1]</t>
   </si>
   <si>
-    <t>Q. 다음의 내용이 신고리 5·6호기 중단 또는 재개 결정을 내리는 데 얼마나 중요하다고 생각하십니까?
-&lt;결정을 내리는데 중요한 고려 요인 : 안전성 측면&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신고리 5·6호기
 중단/재개 결정에
 대한 판단 중요성
@@ -661,49 +656,19 @@
     <t>[B_Q1_2]</t>
   </si>
   <si>
-    <t>Q. 다음의 내용이 신고리 5·6호기 중단 또는 재개 결정을 내리는 데 얼마나 중요하다고 생각하십니까?
-&lt;결정을 내리는데 중요한 고려 요인 : 안정적 에너지 공급 측면&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[B_Q1_3]</t>
   </si>
   <si>
-    <t>Q. 다음의 내용이 신고리 5·6호기 중단 또는 재개 결정을 내리는 데 얼마나 중요하다고 생각하십니까?
-&lt;결정을 내리는데 중요한 고려 요인 : 전력공급 경제성 측면&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[B_Q1_4]</t>
   </si>
   <si>
-    <t>Q. 다음의 내용이 신고리 5·6호기 중단 또는 재개 결정을 내리는 데 얼마나 중요하다고 생각하십니까?
-&lt;결정을 내리는데 중요한 고려 요인 : 지역 및 국가 산업 측면&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[B_Q1_5]</t>
   </si>
   <si>
-    <t>Q. 다음의 내용이 신고리 5·6호기 중단 또는 재개 결정을 내리는 데 얼마나 중요하다고 생각하십니까?
-&lt;결정을 내리는데 중요한 고려 요인 : 전기요금 측면&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[B_Q1_6]</t>
   </si>
   <si>
-    <t>Q. 다음의 내용이 신고리 5·6호기 중단 또는 재개 결정을 내리는 데 얼마나 중요하다고 생각하십니까?
-&lt;결정을 내리는데 중요한 고려 요인 : 환경성 측면&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[B_Q2_1]</t>
-  </si>
-  <si>
-    <t>Q. 지난 1개월 동안 다음 내용을 얼마나 접하셨습니까?
-&lt;신고리 5·6호기에 대한 방송 프로그램&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고리 5·6호기 
@@ -724,57 +689,13 @@
     <t>[B_Q2_2]</t>
   </si>
   <si>
-    <t>Q. 지난 1개월 동안 다음 내용을 얼마나 접하셨습니까?
-&lt;신고리 5·6호기에 대한 뉴스&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[B_Q2_3]</t>
   </si>
   <si>
-    <t>Q. 지난 1개월 동안 다음 내용을 얼마나 접하셨습니까?
-&lt;신고리 5·6호기에 대한 인터넷 정보 검색&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[B_Q2_4]</t>
   </si>
   <si>
-    <t>Q. 지난 1개월 동안 다음 내용을 얼마나 접하셨습니까?
-&lt;신고리 5·6호기에 대한 지인들과의 대화(의견 교환)&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[B_Q3_1]</t>
-  </si>
-  <si>
-    <r>
-      <t>Q. 다음 정보원이 제공하는 신고리 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6호기에 대한 정보를 얼마나 신뢰하십니까?
-&lt;신고리 5·6호기에 대한 정보 신뢰도 : 정부&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정보원별 신고리 
@@ -797,161 +718,16 @@
     <t>[B_Q3_2]</t>
   </si>
   <si>
-    <r>
-      <t>Q. 다음 정보원이 제공하는 신고리 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6호기에 대한 정보를 얼마나 신뢰하십니까?
-&lt;신고리 5·6호기에 대한 정보 신뢰도 : 원자력 전문가&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[B_Q3_3]</t>
   </si>
   <si>
-    <r>
-      <t>Q. 다음 정보원이 제공하는 신고리 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6호기에 대한 정보를 얼마나 신뢰하십니까?
-&lt;신고리 5·6호기에 대한 정보 신뢰도 : 원자력발전 사업자&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[B_Q3_4]</t>
   </si>
   <si>
-    <r>
-      <t>Q. 다음 정보원이 제공하는 신고리 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6호기에 대한 정보를 얼마나 신뢰하십니까?
-&lt;신고리 5·6호기에 대한 정보 신뢰도 : 시민단체&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[B_Q3_5]</t>
   </si>
   <si>
-    <r>
-      <t>Q. 다음 정보원이 제공하는 신고리 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6호기에 대한 정보를 얼마나 신뢰하십니까?
-&lt;신고리 5·6호기에 대한 정보 신뢰도 : 시민, 방송 등 대중매체&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[B_Q3_6]</t>
-  </si>
-  <si>
-    <r>
-      <t>Q. 다음 정보원이 제공하는 신고리 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6호기에 대한 정보를 얼마나 신뢰하십니까?
-&lt;신고리 5·6호기에 대한 정보 신뢰도 : 인터넷 상의 정보&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q4]</t>
@@ -1399,12 +1175,6 @@
   <si>
     <t>설문_문항2</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;건설을 중단해야 한다는 주장&gt;</t>
-  </si>
-  <si>
-    <t>&lt;건설을 재개해야 한다는 주장&gt;</t>
   </si>
   <si>
     <t>[C_Q7_1]</t>
@@ -3205,6 +2975,51 @@
   </si>
   <si>
     <t>2) 건설 중단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q. 다음의 내용이 신고리 5·6호기 중단 또는 재개 결정을 내리는 데 얼마나 중요하다고 생각하십니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q. 지난 1개월 동안 다음 내용을 얼마나 접하셨습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Q. 다음 정보원이 제공하는 신고리 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6호기에 대한 정보를 얼마나 신뢰하십니까?
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;건설을 재개해야 한다는 주장&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;건설을 중단해야 한다는 주장&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3596,14 +3411,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="3" max="4" width="14.9375" customWidth="1"/>
-    <col min="5" max="5" width="26.375" customWidth="1"/>
+    <col min="5" max="5" width="55.4375" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.375" customWidth="1"/>
@@ -3617,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -3785,7 +3600,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
@@ -3965,18 +3780,20 @@
         <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>537</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="G20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -3984,21 +3801,23 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>537</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="G21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4006,21 +3825,23 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>537</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="G22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4028,21 +3849,23 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>537</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="G23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4050,21 +3873,23 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>537</v>
+      </c>
+      <c r="F24" t="s">
+        <v>268</v>
+      </c>
       <c r="G24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4072,21 +3897,23 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>537</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="G25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4094,21 +3921,23 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>538</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4116,21 +3945,23 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="1"/>
+        <v>518</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4138,21 +3969,23 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="1"/>
+        <v>518</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4160,21 +3993,23 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>518</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4182,21 +4017,23 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="1"/>
+        <v>539</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="G30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4204,21 +4041,23 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>539</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="G31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4226,21 +4065,23 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="1"/>
+        <v>539</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="G32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4248,21 +4089,23 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="1"/>
+        <v>539</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="G33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4270,21 +4113,23 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>527</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4292,21 +4137,23 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="1"/>
+        <v>539</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="G35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4314,21 +4161,21 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4336,21 +4183,21 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4358,21 +4205,21 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
@@ -4380,21 +4227,21 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
@@ -4402,21 +4249,21 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
@@ -4424,21 +4271,21 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
@@ -4446,21 +4293,21 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
@@ -4468,21 +4315,21 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.6">
@@ -4493,7 +4340,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D44" s="1"/>
     </row>
@@ -4505,7 +4352,7 @@
         <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
         <v>71</v>
@@ -4516,18 +4363,18 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>33</v>
@@ -4538,10 +4385,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
@@ -4560,10 +4407,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
@@ -4582,21 +4429,21 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4604,25 +4451,25 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="G50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4630,25 +4477,25 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4656,25 +4503,25 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4682,25 +4529,25 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4708,25 +4555,25 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4734,25 +4581,25 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4760,25 +4607,25 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4786,25 +4633,25 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4812,25 +4659,25 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4838,25 +4685,25 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4864,25 +4711,25 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4890,25 +4737,25 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4916,25 +4763,25 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4942,25 +4789,25 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4968,21 +4815,21 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4990,25 +4837,25 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5016,25 +4863,25 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5042,25 +4889,25 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5068,25 +4915,25 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5094,25 +4941,25 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5120,25 +4967,25 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5146,25 +4993,25 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5172,25 +5019,25 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5198,25 +5045,25 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5224,25 +5071,25 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5250,25 +5097,25 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>198</v>
+        <v>540</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5276,25 +5123,25 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D76" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F76" t="s">
-        <v>199</v>
+        <v>541</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5302,19 +5149,19 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5322,19 +5169,19 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5342,19 +5189,19 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5362,19 +5209,19 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5382,19 +5229,19 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5402,19 +5249,19 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5422,19 +5269,19 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5442,19 +5289,19 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="67.5" x14ac:dyDescent="0.6">
@@ -5462,19 +5309,19 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C85" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="E85" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="185.65" x14ac:dyDescent="0.6">
@@ -5482,19 +5329,19 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C86" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5502,19 +5349,19 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C87" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E87" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5522,19 +5369,19 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C88" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5542,19 +5389,19 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C89" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="E89" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
@@ -5562,19 +5409,19 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C90" t="s">
+        <v>217</v>
+      </c>
+      <c r="E90" t="s">
         <v>235</v>
-      </c>
-      <c r="E90" t="s">
-        <v>253</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
@@ -5582,19 +5429,19 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="E91" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="185.65" x14ac:dyDescent="0.6">
@@ -5602,19 +5449,19 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="E92" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="185.65" x14ac:dyDescent="0.6">
@@ -5622,13 +5469,13 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="E93" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>38</v>
@@ -5642,19 +5489,19 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E94" t="s">
         <v>44</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5662,25 +5509,25 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" t="s">
+        <v>255</v>
+      </c>
+      <c r="E95" t="s">
+        <v>263</v>
+      </c>
+      <c r="F95" t="s">
+        <v>264</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D95" t="s">
-        <v>273</v>
-      </c>
-      <c r="E95" t="s">
-        <v>281</v>
-      </c>
-      <c r="F95" t="s">
-        <v>282</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5688,25 +5535,25 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D96" t="s">
+        <v>256</v>
+      </c>
+      <c r="E96" t="s">
+        <v>263</v>
+      </c>
+      <c r="F96" t="s">
+        <v>265</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D96" t="s">
-        <v>274</v>
-      </c>
-      <c r="E96" t="s">
-        <v>281</v>
-      </c>
-      <c r="F96" t="s">
-        <v>283</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="H96" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5714,25 +5561,25 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D97" t="s">
+        <v>257</v>
+      </c>
+      <c r="E97" t="s">
+        <v>263</v>
+      </c>
+      <c r="F97" t="s">
+        <v>266</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D97" t="s">
-        <v>275</v>
-      </c>
-      <c r="E97" t="s">
-        <v>281</v>
-      </c>
-      <c r="F97" t="s">
-        <v>284</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="H97" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5740,25 +5587,25 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D98" t="s">
+        <v>258</v>
+      </c>
+      <c r="E98" t="s">
+        <v>263</v>
+      </c>
+      <c r="F98" t="s">
+        <v>267</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D98" t="s">
-        <v>276</v>
-      </c>
-      <c r="E98" t="s">
-        <v>281</v>
-      </c>
-      <c r="F98" t="s">
-        <v>285</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="H98" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5766,25 +5613,25 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D99" t="s">
+        <v>259</v>
+      </c>
+      <c r="E99" t="s">
+        <v>263</v>
+      </c>
+      <c r="F99" t="s">
+        <v>268</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D99" t="s">
-        <v>277</v>
-      </c>
-      <c r="E99" t="s">
-        <v>281</v>
-      </c>
-      <c r="F99" t="s">
-        <v>286</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="H99" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5792,25 +5639,25 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D100" t="s">
+        <v>149</v>
+      </c>
+      <c r="E100" t="s">
+        <v>263</v>
+      </c>
+      <c r="F100" t="s">
+        <v>150</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D100" t="s">
-        <v>165</v>
-      </c>
-      <c r="E100" t="s">
-        <v>281</v>
-      </c>
-      <c r="F100" t="s">
-        <v>166</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="H100" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5818,25 +5665,25 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D101" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E101" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="F101" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5844,25 +5691,25 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D102" t="s">
+        <v>280</v>
+      </c>
+      <c r="E102" t="s">
+        <v>528</v>
+      </c>
+      <c r="F102" t="s">
         <v>290</v>
       </c>
-      <c r="D102" t="s">
-        <v>298</v>
-      </c>
-      <c r="E102" t="s">
-        <v>546</v>
-      </c>
-      <c r="F102" t="s">
-        <v>308</v>
-      </c>
       <c r="G102" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5870,25 +5717,25 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D103" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="E103" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="F103" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5896,25 +5743,25 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D104" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="E104" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="F104" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5922,25 +5769,25 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D105" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="E105" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="F105" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5948,25 +5795,25 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D106" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="E106" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="F106" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5974,25 +5821,25 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D107" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="E107" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="F107" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6000,25 +5847,25 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D108" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="E108" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="F108" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6026,25 +5873,25 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D109" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="E109" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F109" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6052,25 +5899,25 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D110" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="E110" t="s">
+        <v>298</v>
+      </c>
+      <c r="F110" t="s">
         <v>316</v>
       </c>
-      <c r="F110" t="s">
-        <v>334</v>
-      </c>
       <c r="G110" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6078,25 +5925,25 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D111" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="E111" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F111" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6104,25 +5951,25 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D112" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="E112" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F112" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6130,25 +5977,25 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D113" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E113" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F113" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6156,25 +6003,25 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D114" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="E114" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F114" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6182,25 +6029,25 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D115" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="E115" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F115" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6208,25 +6055,25 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D116" t="s">
         <v>315</v>
       </c>
-      <c r="D116" t="s">
-        <v>333</v>
-      </c>
       <c r="E116" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F116" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6234,25 +6081,25 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D117" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="E117" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F117" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6260,25 +6107,25 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D118" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="E118" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F118" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6286,25 +6133,25 @@
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="D119" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="E119" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="F119" t="s">
-        <v>198</v>
+        <v>540</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6312,25 +6159,25 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="D120" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="E120" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="F120" t="s">
-        <v>199</v>
+        <v>541</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="67.5" x14ac:dyDescent="0.6">
@@ -6338,19 +6185,19 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="E121" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -6358,19 +6205,19 @@
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="E122" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6378,22 +6225,22 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E123" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="F123" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6401,22 +6248,22 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E124" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="F124" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="50.65" x14ac:dyDescent="0.6">
@@ -6424,13 +6271,13 @@
         <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="E125" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6438,22 +6285,22 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="E126" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="F126" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6461,22 +6308,22 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="E127" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="F127" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="50.65" x14ac:dyDescent="0.6">
@@ -6484,13 +6331,13 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="E128" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -6498,19 +6345,19 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="E129" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -6518,19 +6365,19 @@
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="E130" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -6538,19 +6385,19 @@
         <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E131" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -6558,19 +6405,19 @@
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="E132" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -6578,19 +6425,19 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="E133" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -6598,19 +6445,19 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="E134" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -6618,19 +6465,19 @@
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="E135" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -6638,19 +6485,19 @@
         <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="E136" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6658,25 +6505,25 @@
         <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D137" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="E137" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F137" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6684,25 +6531,25 @@
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D138" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="E138" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F138" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6710,25 +6557,25 @@
         <v>3</v>
       </c>
       <c r="B139" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D139" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="E139" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F139" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6736,25 +6583,25 @@
         <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D140" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="E140" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F140" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6762,25 +6609,25 @@
         <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D141" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="E141" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F141" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6788,25 +6635,25 @@
         <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D142" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E142" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F142" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6814,25 +6661,25 @@
         <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D143" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="E143" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F143" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6840,25 +6687,25 @@
         <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D144" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="E144" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F144" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6866,25 +6713,25 @@
         <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D145" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="E145" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F145" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6892,25 +6739,25 @@
         <v>3</v>
       </c>
       <c r="B146" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D146" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="E146" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F146" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6918,25 +6765,25 @@
         <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D147" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="E147" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F147" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6944,25 +6791,25 @@
         <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D148" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="E148" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F148" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6970,25 +6817,25 @@
         <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D149" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="E149" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F149" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6996,25 +6843,25 @@
         <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D150" t="s">
+        <v>407</v>
+      </c>
+      <c r="E150" t="s">
         <v>425</v>
       </c>
-      <c r="E150" t="s">
-        <v>443</v>
-      </c>
       <c r="F150" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7022,25 +6869,25 @@
         <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D151" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="E151" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="F151" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7048,25 +6895,25 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D152" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="E152" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="F152" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7074,25 +6921,25 @@
         <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D153" t="s">
+        <v>433</v>
+      </c>
+      <c r="E153" t="s">
+        <v>425</v>
+      </c>
+      <c r="F153" t="s">
+        <v>440</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H153" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="E153" t="s">
-        <v>443</v>
-      </c>
-      <c r="F153" t="s">
-        <v>458</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7100,25 +6947,25 @@
         <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D154" t="s">
+        <v>434</v>
+      </c>
+      <c r="E154" t="s">
+        <v>425</v>
+      </c>
+      <c r="F154" t="s">
         <v>442</v>
       </c>
-      <c r="D154" t="s">
-        <v>452</v>
-      </c>
-      <c r="E154" t="s">
-        <v>443</v>
-      </c>
-      <c r="F154" t="s">
-        <v>460</v>
-      </c>
       <c r="G154" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7126,25 +6973,25 @@
         <v>3</v>
       </c>
       <c r="B155" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D155" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="E155" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="F155" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7152,25 +6999,25 @@
         <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D156" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E156" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="F156" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7178,25 +7025,25 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D157" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="E157" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="F157" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7204,25 +7051,25 @@
         <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D158" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="E158" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="F158" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7230,25 +7077,25 @@
         <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="C159" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="D159" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="E159" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="F159" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7256,25 +7103,25 @@
         <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="C160" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="D160" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="E160" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="F160" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7282,25 +7129,25 @@
         <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="C161" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="D161" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="E161" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="F161" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7308,25 +7155,25 @@
         <v>3</v>
       </c>
       <c r="B162" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="C162" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="D162" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="E162" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="F162" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7334,25 +7181,25 @@
         <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="C163" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="D163" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="E163" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="F163" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7360,25 +7207,25 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="D164" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="E164" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="F164" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7386,25 +7233,25 @@
         <v>3</v>
       </c>
       <c r="B165" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="D165" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="E165" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="F165" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7412,25 +7259,25 @@
         <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="D166" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="E166" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="F166" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7438,25 +7285,25 @@
         <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="D167" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="E167" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="F167" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7464,25 +7311,25 @@
         <v>3</v>
       </c>
       <c r="B168" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D168" t="s">
+        <v>478</v>
+      </c>
+      <c r="E168" t="s">
+        <v>482</v>
+      </c>
+      <c r="F168" t="s">
         <v>487</v>
       </c>
-      <c r="D168" t="s">
-        <v>496</v>
-      </c>
-      <c r="E168" t="s">
-        <v>500</v>
-      </c>
-      <c r="F168" t="s">
-        <v>505</v>
-      </c>
       <c r="G168" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7490,25 +7337,25 @@
         <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="D169" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="E169" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="F169" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="84.4" x14ac:dyDescent="0.6">
@@ -7516,19 +7363,19 @@
         <v>3</v>
       </c>
       <c r="B170" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="E170" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="50.65" x14ac:dyDescent="0.6">
@@ -7536,13 +7383,13 @@
         <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="E171" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
@@ -7550,13 +7397,13 @@
         <v>3</v>
       </c>
       <c r="B172" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="D172" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/data/converted_variable.xlsx
+++ b/data/converted_variable.xlsx
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>객관식_답변_문항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주관식답변</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -124,26 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1
-2
-3
-4
-5
-6
-7
-8
-9
-10
-11
-12
-13
-14
-15
-16
-17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">[A_SQ1] </t>
   </si>
   <si>
@@ -1149,14 +1125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>변수_설명2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변수_설명1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건설 중단/재개에 
 대한 공감도
 (3차)</t>
@@ -1166,14 +1134,6 @@
     <t>Q. 건설을 재개해야 한다는 측도 다양한 주장이 있고, 건설을 
 중단해야 한다는 측도 다양한 주장이 있습니다. 다음 각각의 
 주장에 대해 얼마나 공감하십니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문_문항1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문_문항2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3020,6 +2980,47 @@
   </si>
   <si>
     <t>&lt;건설을 중단해야 한다는 주장&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;결정을 내리는데 중요한 고려 요인 : 안전성 측면&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+2
+3
+4
+5
+6
+7
+8
+9
+10
+11
+12
+13
+14
+15
+16
+17
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3409,10 +3410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -3424,24 +3425,24 @@
     <col min="8" max="8" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>177</v>
+        <v>539</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>540</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>537</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>538</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -3449,290 +3450,290 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="286.89999999999998" x14ac:dyDescent="0.6">
+    </row>
+    <row r="3" spans="1:8" ht="303.75" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="270" x14ac:dyDescent="0.6">
+    </row>
+    <row r="4" spans="1:8" ht="270" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    </row>
+    <row r="5" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="84.4" x14ac:dyDescent="0.6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="67.5" x14ac:dyDescent="0.6">
+    </row>
+    <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="101.25" x14ac:dyDescent="0.6">
+    </row>
+    <row r="9" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="168.75" x14ac:dyDescent="0.6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="168.75" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="185.65" x14ac:dyDescent="0.6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="185.65" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="67.5" x14ac:dyDescent="0.6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="202.5" x14ac:dyDescent="0.6">
+    </row>
+    <row r="13" spans="1:8" ht="202.5" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="151.9" x14ac:dyDescent="0.6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="135" x14ac:dyDescent="0.6">
+    </row>
+    <row r="15" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
+      <c r="G15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    </row>
+    <row r="16" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.6">
@@ -3740,13 +3741,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.6">
@@ -3754,10 +3755,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
         <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.6">
@@ -3765,10 +3766,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -3777,23 +3778,23 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -3801,23 +3802,23 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -3825,23 +3826,23 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -3849,23 +3850,23 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -3873,23 +3874,23 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F24" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -3897,23 +3898,23 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -3921,23 +3922,23 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -3945,23 +3946,23 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -3969,23 +3970,23 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -3993,23 +3994,23 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4017,23 +4018,23 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4041,23 +4042,23 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4065,23 +4066,23 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4089,23 +4090,23 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4113,23 +4114,23 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4137,23 +4138,23 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4161,21 +4162,21 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4183,21 +4184,21 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4205,21 +4206,21 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
@@ -4227,21 +4228,21 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
@@ -4249,21 +4250,21 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
@@ -4271,21 +4272,21 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
@@ -4293,21 +4294,21 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
@@ -4315,21 +4316,21 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.6">
@@ -4337,10 +4338,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="1"/>
     </row>
@@ -4349,13 +4350,13 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4363,21 +4364,21 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="168.75" x14ac:dyDescent="0.6">
@@ -4385,21 +4386,21 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="185.65" x14ac:dyDescent="0.6">
@@ -4407,21 +4408,21 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="67.5" x14ac:dyDescent="0.6">
@@ -4429,21 +4430,21 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4451,25 +4452,25 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4477,25 +4478,25 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4503,25 +4504,25 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4529,25 +4530,25 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4555,25 +4556,25 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4581,25 +4582,25 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4607,25 +4608,25 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4633,25 +4634,25 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4659,25 +4660,25 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4685,25 +4686,25 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4711,25 +4712,25 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4737,25 +4738,25 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4763,25 +4764,25 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4789,25 +4790,25 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -4815,21 +4816,21 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4837,25 +4838,25 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4863,25 +4864,25 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4889,25 +4890,25 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4915,25 +4916,25 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4941,25 +4942,25 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4967,25 +4968,25 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -4993,25 +4994,25 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5019,25 +5020,25 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5045,25 +5046,25 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5071,25 +5072,25 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5097,25 +5098,25 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" t="s">
+        <v>529</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D75" t="s">
-        <v>535</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5123,25 +5124,25 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" t="s">
+        <v>530</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F76" t="s">
+        <v>535</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D76" t="s">
-        <v>536</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F76" t="s">
-        <v>541</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5149,19 +5150,19 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5169,19 +5170,19 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5189,19 +5190,19 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5209,19 +5210,19 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5229,19 +5230,19 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5249,19 +5250,19 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5269,19 +5270,19 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5289,19 +5290,19 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="67.5" x14ac:dyDescent="0.6">
@@ -5309,19 +5310,19 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E85" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="185.65" x14ac:dyDescent="0.6">
@@ -5329,19 +5330,19 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C86" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5349,19 +5350,19 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E87" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5369,19 +5370,19 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5389,19 +5390,19 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E89" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
@@ -5409,2001 +5410,2001 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E90" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
       <c r="A91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
+        <v>231</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E91" t="s">
         <v>237</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E91" t="s">
-        <v>243</v>
-      </c>
       <c r="G91" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="185.65" x14ac:dyDescent="0.6">
       <c r="A92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E92" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="185.65" x14ac:dyDescent="0.6">
       <c r="A93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E93" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D95" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E95" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F95" t="s">
+        <v>258</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="H95" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D96" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E96" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F96" t="s">
+        <v>259</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D97" t="s">
+        <v>251</v>
+      </c>
+      <c r="E97" t="s">
         <v>257</v>
       </c>
-      <c r="E97" t="s">
-        <v>263</v>
-      </c>
       <c r="F97" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" t="s">
         <v>252</v>
       </c>
-      <c r="D98" t="s">
-        <v>258</v>
-      </c>
       <c r="E98" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F98" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D99" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E99" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F99" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D100" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E100" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F100" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D101" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E101" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F101" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D102" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E102" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F102" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D103" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E103" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F103" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
+        <v>270</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D104" t="s">
         <v>276</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D104" t="s">
-        <v>282</v>
-      </c>
       <c r="E104" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F104" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
+        <v>271</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D105" t="s">
         <v>277</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D105" t="s">
-        <v>283</v>
-      </c>
       <c r="E105" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F105" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D106" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E106" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F106" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D107" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E107" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F107" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D108" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E108" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F108" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D109" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E109" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F109" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D110" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E110" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F110" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D111" t="s">
         <v>297</v>
       </c>
-      <c r="D111" t="s">
-        <v>303</v>
-      </c>
       <c r="E111" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F111" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D112" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E112" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F112" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D113" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E113" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F113" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D114" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E114" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F114" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D115" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E115" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F115" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D116" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E116" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F116" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D117" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E117" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F117" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D118" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E118" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F118" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D119" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E119" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F119" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B120" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D120" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E120" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F120" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E121" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E122" t="s">
         <v>334</v>
       </c>
-      <c r="E122" t="s">
-        <v>340</v>
-      </c>
       <c r="G122" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E123" t="s">
+        <v>337</v>
+      </c>
+      <c r="F123" t="s">
+        <v>338</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H123" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="F123" t="s">
-        <v>344</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E124" t="s">
+        <v>337</v>
+      </c>
+      <c r="F124" t="s">
+        <v>339</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H124" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="F124" t="s">
-        <v>345</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E125" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E126" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F126" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
       <c r="A127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E127" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F127" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E128" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E129" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E130" t="s">
+        <v>99</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B131" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E131" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E132" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E133" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E134" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E135" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B136" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E136" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D137" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E137" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F137" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B138" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D138" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E138" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F138" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B139" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D139" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E139" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F139" t="s">
+        <v>376</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H139" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B140" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D140" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E140" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F140" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D141" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E141" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F141" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B142" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D142" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E142" t="s">
+        <v>373</v>
+      </c>
+      <c r="F142" t="s">
         <v>379</v>
       </c>
-      <c r="F142" t="s">
-        <v>385</v>
-      </c>
       <c r="G142" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D143" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E143" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F143" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B144" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D144" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E144" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F144" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B145" t="s">
+        <v>411</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D145" t="s">
+        <v>401</v>
+      </c>
+      <c r="E145" t="s">
+        <v>402</v>
+      </c>
+      <c r="F145" t="s">
+        <v>403</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H145" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D145" t="s">
-        <v>407</v>
-      </c>
-      <c r="E145" t="s">
-        <v>408</v>
-      </c>
-      <c r="F145" t="s">
-        <v>409</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B146" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D146" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E146" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F146" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B147" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D147" t="s">
         <v>406</v>
       </c>
-      <c r="D147" t="s">
-        <v>412</v>
-      </c>
       <c r="E147" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F147" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B148" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D148" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E148" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F148" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D149" t="s">
+        <v>410</v>
+      </c>
+      <c r="E149" t="s">
+        <v>402</v>
+      </c>
+      <c r="F149" t="s">
         <v>416</v>
       </c>
-      <c r="E149" t="s">
-        <v>408</v>
-      </c>
-      <c r="F149" t="s">
-        <v>422</v>
-      </c>
       <c r="G149" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D150" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E150" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F150" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B151" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D151" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E151" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F151" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B152" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D152" t="s">
         <v>424</v>
       </c>
-      <c r="D152" t="s">
-        <v>430</v>
-      </c>
       <c r="E152" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F152" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D153" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E153" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F153" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B154" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D154" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E154" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F154" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D155" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E155" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F155" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B156" t="s">
+        <v>439</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D156" t="s">
+        <v>430</v>
+      </c>
+      <c r="E156" t="s">
+        <v>419</v>
+      </c>
+      <c r="F156" t="s">
+        <v>440</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H156" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D156" t="s">
-        <v>436</v>
-      </c>
-      <c r="E156" t="s">
-        <v>425</v>
-      </c>
-      <c r="F156" t="s">
-        <v>446</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D157" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E157" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F157" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D158" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E158" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F158" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C159" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D159" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E159" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F159" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B160" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C160" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D160" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E160" t="s">
+        <v>447</v>
+      </c>
+      <c r="F160" t="s">
         <v>453</v>
       </c>
-      <c r="F160" t="s">
-        <v>459</v>
-      </c>
       <c r="G160" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C161" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D161" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E161" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F161" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A162">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B162" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C162" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D162" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E162" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F162" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C163" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D163" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E163" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F163" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B164" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D164" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E164" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F164" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A165">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B165" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D165" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E165" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F165" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D166" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E166" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F166" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D167" t="s">
+        <v>470</v>
+      </c>
+      <c r="E167" t="s">
         <v>476</v>
       </c>
-      <c r="E167" t="s">
-        <v>482</v>
-      </c>
       <c r="F167" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D168" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E168" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F168" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="135" x14ac:dyDescent="0.6">
       <c r="A169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D169" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E169" t="s">
+        <v>476</v>
+      </c>
+      <c r="F169" t="s">
         <v>482</v>
       </c>
-      <c r="F169" t="s">
-        <v>488</v>
-      </c>
       <c r="G169" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E170" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A171">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E171" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D172" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/data/converted_variable.xlsx
+++ b/data/converted_variable.xlsx
@@ -2930,14 +2930,6 @@
     </r>
   </si>
   <si>
-    <t>1) 건설 재개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 건설 중단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Q. 다음의 내용이 신고리 5·6호기 중단 또는 재개 결정을 내리는 데 얼마나 중요하다고 생각하십니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3021,6 +3013,14 @@
 16
 17
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 건설 중단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 건설 재개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3412,9 +3412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
@@ -3433,16 +3431,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -3476,7 +3474,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
@@ -3654,7 +3652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="202.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3785,10 +3783,10 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>72</v>
@@ -3809,7 +3807,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>259</v>
@@ -3833,7 +3831,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>260</v>
@@ -3857,7 +3855,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>261</v>
@@ -3881,7 +3879,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F24" t="s">
         <v>262</v>
@@ -3905,7 +3903,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>148</v>
@@ -3929,7 +3927,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>513</v>
@@ -4025,7 +4023,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>269</v>
@@ -4049,7 +4047,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>284</v>
@@ -4073,7 +4071,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>285</v>
@@ -4097,7 +4095,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>286</v>
@@ -4145,7 +4143,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>288</v>
@@ -5104,13 +5102,13 @@
         <v>174</v>
       </c>
       <c r="D75" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>72</v>
@@ -5130,13 +5128,13 @@
         <v>174</v>
       </c>
       <c r="D76" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F76" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>72</v>
@@ -6140,13 +6138,13 @@
         <v>323</v>
       </c>
       <c r="D119" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="E119" t="s">
         <v>324</v>
       </c>
       <c r="F119" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>264</v>
@@ -6166,13 +6164,13 @@
         <v>323</v>
       </c>
       <c r="D120" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="E120" t="s">
         <v>324</v>
       </c>
       <c r="F120" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>264</v>
